--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -552,22 +552,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523255</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092862</v>
+        <v>0.9526279648020819</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964809681</v>
+        <v>0.9526279648025193</v>
       </c>
       <c r="Q3">
-        <v>8.620192215330356E-11</v>
+        <v>-4.057898871037865E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.999999999882</v>
+        <v>-179.99999999999</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.733333349138041</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292906</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.415050686472405E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625394</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985763</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888097484370796E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888099387923842E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.093471052895229</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.060892992359799</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.087229555233819</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.01852472695075</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-90.38582100567785</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>150.7988511679325</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="D3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.33046020647508</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="G3">
-        <v>29.33046020647508</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.074801634005769</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.898058267835772</v>
+        <v>0.7109795688765317</v>
       </c>
       <c r="P3">
-        <v>1.03104599918223</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>24.65619634488694</v>
+        <v>17.92198046293675</v>
       </c>
       <c r="R3">
-        <v>-93.08699457050156</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>154.2225716896776</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.090554001197685</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>1.032377592742154</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>1.076379949714971</v>
+        <v>0.9171656569531272</v>
       </c>
       <c r="Q4">
-        <v>28.24673185381133</v>
+        <v>17.92198046336738</v>
       </c>
       <c r="R4">
-        <v>-90.89472190789249</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>151.3471471228641</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>29.99999999916123</v>
+        <v>17.92198046351092</v>
       </c>
       <c r="R5">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
-        <v>150.0000000000779</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P6">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
-        <v>150.0000000000779</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.093471052895229</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.060892992359799</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.087229555233819</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>29.01852472695075</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-90.38582100567785</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>150.7988511679325</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="D3">
-        <v>2.540092364349599</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.33046020647508</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="G3">
-        <v>29.33046020647508</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.074801634005769</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.898058267835772</v>
+        <v>0.7109795688765317</v>
       </c>
       <c r="P3">
-        <v>1.03104599918223</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>24.65619634488694</v>
+        <v>17.92198046293675</v>
       </c>
       <c r="R3">
-        <v>-93.08699457050156</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>154.2225716896776</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.090554001197685</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>1.032377592742154</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>1.076379949714971</v>
+        <v>0.9171656569531272</v>
       </c>
       <c r="Q4">
-        <v>28.24673185381133</v>
+        <v>17.92198046336738</v>
       </c>
       <c r="R4">
-        <v>-90.89472190789249</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>151.3471471228641</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>29.99999999916123</v>
+        <v>17.92198046351092</v>
       </c>
       <c r="R5">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
-        <v>150.0000000000779</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023849673</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>1.100000023821822</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P6">
-        <v>1.100000023824615</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>29.99999999916123</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-90.00000000150349</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
-        <v>150.0000000000779</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.73134295964711</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="D3">
-        <v>8.73134295964711</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.820864162784</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="G3">
-        <v>100.820864162784</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851682</v>
+        <v>0.8660254037841223</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>2.055319256913972E-10</v>
+        <v>3.072507624237629E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631726</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368617</v>
+        <v>2.755408590288587E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552726</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663637728479492E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663634956918801E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9477232070956723</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232748916</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309890599</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>24.75158797612442</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898421</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>155.5173957043388</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.73134295964711</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="D3">
-        <v>8.73134295964711</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>100.820864162784</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="G3">
-        <v>100.820864162784</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8660254037851682</v>
+        <v>0.8660254037841223</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037846572</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>2.055319256913972E-10</v>
+        <v>3.072507624237629E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>179.9999999998302</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9279607271631726</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.6666666666333279</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9279607271030348</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>21.05172443368617</v>
+        <v>2.755408590288587E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552726</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755648917</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>29.9999999971298</v>
+        <v>3.663637728479492E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000029364</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
-        <v>0.999999999942634</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999436433</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>29.9999999971298</v>
+        <v>3.663634956918801E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000000273</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890478855367029</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9494298235603638</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9861504829633156</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
-        <v>28.68335838929067</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-90.19939743700446</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>151.2245009153358</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.141126807982271</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="D3">
-        <v>2.141126807982271</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="G3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9581738593713774</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.7570026426538632</v>
+        <v>0.6348876951823895</v>
       </c>
       <c r="P3">
-        <v>0.9318955712475537</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>23.24976676176108</v>
+        <v>17.57011779536514</v>
       </c>
       <c r="R3">
-        <v>-92.17091768534125</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
-        <v>156.0542616190346</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9845599273626018</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.9188694917302177</v>
+        <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.976115936171922</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>27.81475647128665</v>
+        <v>17.5701177962944</v>
       </c>
       <c r="R4">
-        <v>-90.59603200400132</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
-        <v>151.9234409806961</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P5">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q5">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P6">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q6">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890478855367029</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9494298235603638</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9861504829633156</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
-        <v>28.68335838929067</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-90.19939743700446</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>151.2245009153358</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.141126807982271</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="D3">
-        <v>2.141126807982271</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="G3">
-        <v>24.72360277915377</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9581738593713774</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.7570026426538632</v>
+        <v>0.6348876951823895</v>
       </c>
       <c r="P3">
-        <v>0.9318955712475537</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>23.24976676176108</v>
+        <v>17.57011779536514</v>
       </c>
       <c r="R3">
-        <v>-92.17091768534125</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
-        <v>156.0542616190346</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9845599273626018</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.9188694917302177</v>
+        <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.976115936171922</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>27.81475647128665</v>
+        <v>17.5701177962944</v>
       </c>
       <c r="R4">
-        <v>-90.59603200400132</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
-        <v>151.9234409806961</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P5">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q5">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000008532</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.9999999999888127</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P6">
-        <v>0.9999999999862035</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q6">
-        <v>29.99999999934646</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-90.00000000147362</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>149.9999999999076</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000169</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591091</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058339</v>
+        <v>49.29479450528563</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495887</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843533</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664269</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>0.722622768920307</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>0.885664674454433</v>
+        <v>0.6144432972249562</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>29.61949628337789</v>
+        <v>23.9380781770396</v>
       </c>
       <c r="R3">
-        <v>-90.00000000003469</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.100000023841839</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.93807817967972</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.059185863761335</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.10000002384335</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.079249536297098</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.05653648591828</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-90.00000000000169</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>148.1509253301239</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591091</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>60.20969441058339</v>
+        <v>49.29479450528563</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495887</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843533</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664269</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>0.722622768920307</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>0.885664674454433</v>
+        <v>0.6144432972249562</v>
       </c>
       <c r="O3">
-        <v>1.100000023842849</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P3">
-        <v>1.01557787497317</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>29.61949628337789</v>
+        <v>23.9380781770396</v>
       </c>
       <c r="R3">
-        <v>-90.00000000003469</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S3">
-        <v>139.2989256783441</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>5.214312491366313</v>
+        <v>4.269054431591091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.028550265801832</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.100000023841839</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P4">
-        <v>1.067823870082014</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>29.89078594690218</v>
+        <v>23.93807817967972</v>
       </c>
       <c r="R4">
-        <v>-90.00000000000914</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S4">
-        <v>146.6252388279147</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O5">
-        <v>1.100000023841335</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P5">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870822</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002381473</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.100000023841335</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P6">
-        <v>1.10000002384949</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870822</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>149.9999999981486</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495887</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843533</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664269</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>0.722622768920307</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.956852538740053</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000595</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427089</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446287</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166161</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4427,22 +4427,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.089730009860671</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.100000023842208</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.092884001562818</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.12185916088326</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.9999999999977</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.5943547085473</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.52975634288324</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495887</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>2.197592797843533</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973664269</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.722622768924668</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822678</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>0.722622768920307</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>1.045519213496414</v>
+        <v>0.956852538740053</v>
       </c>
       <c r="O3">
-        <v>1.100000023841955</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.065539287962101</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.50942616315902</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000595</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>147.710350043887</v>
+        <v>142.5196106427089</v>
       </c>
       <c r="T3">
-        <v>1.34491635075194</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.081830416116111</v>
+        <v>0.9568525387446287</v>
       </c>
       <c r="O4">
-        <v>1.100000023841702</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.088322056522178</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>30.16410722166161</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999956</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>149.2529381104573</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O5">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.100000023841856</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q5">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023833598</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O6">
-        <v>1.100000023841575</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.100000023841856</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q6">
-        <v>29.99999999974202</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>149.9999999995057</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.92050795364841</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.73591896686285</v>
+        <v>2.675869257225819</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.59167103998539</v>
+        <v>30.89827671951142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.925228692612576</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172597</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.844137727958634</v>
+        <v>0.7181269486848423</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576397</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660853</v>
+        <v>19.2282476408361</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999775</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.73591896686285</v>
+        <v>2.675869257225819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.7181269486975268</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434913</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.7055077685826</v>
+        <v>19.2282476430901</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999503</v>
+        <v>-89.99999999999822</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017575</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999845</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017578</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999847</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.967647082729331</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985705</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9854034822248159</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.92050795364841</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999535</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.3315692262161</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.73591896686285</v>
+        <v>2.675869257225819</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>31.59167103998539</v>
+        <v>30.89827671951142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.925228692612576</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172597</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.844137727958634</v>
+        <v>0.7181269486848423</v>
       </c>
       <c r="O3">
-        <v>1.000000000000357</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P3">
-        <v>0.9454503575576397</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>29.00775856660853</v>
+        <v>19.2282476408361</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999241</v>
+        <v>-89.99999999999775</v>
       </c>
       <c r="S3">
-        <v>141.3374147775727</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.73591896686285</v>
+        <v>2.675869257225819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9480162386812545</v>
+        <v>0.7181269486975268</v>
       </c>
       <c r="O4">
-        <v>1.000000000000435</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P4">
-        <v>0.9793726293434913</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.7055077685826</v>
+        <v>19.2282476430901</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999503</v>
+        <v>-89.99999999999822</v>
       </c>
       <c r="S4">
-        <v>147.222005507838</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017575</v>
       </c>
       <c r="O5">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P5">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>29.99999999906515</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999845</v>
       </c>
       <c r="S5">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999992797</v>
+        <v>0.7181269487017578</v>
       </c>
       <c r="O6">
-        <v>1.000000000000474</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.000000000010747</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>29.99999999906515</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999847</v>
       </c>
       <c r="S6">
-        <v>149.9999999991462</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241413</v>
+        <v>1.019575804880166</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.925228692612576</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172597</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271658</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421809</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696598</v>
+        <v>27.67272062331513</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241413</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525125</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389995</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999699</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848257</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9879750830742445</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>0.9999999999996338</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.991378219381125</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.17724365988025</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999709</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.4862132965908</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.048670561241413</v>
+        <v>1.019575804880166</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.10900461647932</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231266</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.675027477878678</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.925228692612576</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829698</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172597</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.9411807240271658</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.000000000000131</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P3">
-        <v>0.9614429953421809</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.71494733696598</v>
+        <v>27.67272062331513</v>
       </c>
       <c r="R3">
-        <v>-90.00000000000092</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>147.3095267505598</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>1.048670561241413</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9803769661525125</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.000000000000053</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>0.9869090578375679</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.22878239728844</v>
+        <v>27.67272062389995</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999788</v>
+        <v>-89.99999999999699</v>
       </c>
       <c r="S4">
-        <v>149.1266043354938</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999954067</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O5">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P5">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848257</v>
       </c>
       <c r="Q5">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999954067</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O6">
-        <v>1.000000000000014</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P6">
-        <v>1.000000000002164</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>29.99999999970415</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>149.999999999618</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525941</v>
+        <v>0.8909260930534472</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314653</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.34577989258121</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543377</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254002</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153991</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159128</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.402024289629551</v>
+        <v>-9.283488353327451</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104104</v>
+        <v>2.917997876526143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.00085880502582</v>
+        <v>0.8708416185120124</v>
       </c>
       <c r="O4">
-        <v>0.733333349137406</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750353</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423932</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624973</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460671</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836059</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789442</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836058</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789437</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.034891897403129</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930525941</v>
+        <v>0.8909260930534472</v>
       </c>
       <c r="P2">
-        <v>1.050657798437081</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>25.08309126056915</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314653</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>154.5112905585385</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>14.34577989258121</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>12.51066096599708</v>
+        <v>3.634748069092455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>165.6507976543377</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>144.4606695291712</v>
+        <v>41.97045552254002</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9039864911153991</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9039864911159128</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>-2.402024289629551</v>
+        <v>-9.283488353327451</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>177.5979757104278</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>3.029059022104104</v>
+        <v>2.917997876526143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.00085880502582</v>
+        <v>0.8708416185120124</v>
       </c>
       <c r="O4">
-        <v>0.733333349137406</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01006972515839</v>
+        <v>0.8708416185750353</v>
       </c>
       <c r="Q4">
-        <v>20.7158684424472</v>
+        <v>-9.283488351423932</v>
       </c>
       <c r="R4">
-        <v>-90.00000000624973</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>157.9438950505057</v>
+        <v>170.7165116460671</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O5">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836059</v>
       </c>
       <c r="Q5">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789442</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000010233</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023855364</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O6">
-        <v>1.100000023703986</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023758936</v>
+        <v>0.8708416185836058</v>
       </c>
       <c r="Q6">
-        <v>29.99999999482333</v>
+        <v>-9.283488350789437</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000010233</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.092177903652934</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.078560055256258</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.089909805515241</v>
+        <v>1.073420542971326</v>
       </c>
       <c r="Q2">
-        <v>29.49023960247584</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.23666155032254</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>150.2459170073016</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.59659452480627</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.421579535282145</v>
+        <v>1.211666286235112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.43588557367165</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>16.41498654739219</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.06278335912045</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9891793628955214</v>
+        <v>0.8723446855807018</v>
       </c>
       <c r="P3">
-        <v>1.045949625268017</v>
+        <v>0.9600343016410947</v>
       </c>
       <c r="Q3">
-        <v>27.13325974900417</v>
+        <v>21.17428113068095</v>
       </c>
       <c r="R3">
-        <v>-91.69953437667314</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>151.1900303807082</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>1.145512290512555</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.087295498353202</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>1.062959741151789</v>
+        <v>0.8723446855803992</v>
       </c>
       <c r="P4">
-        <v>1.08193225533879</v>
+        <v>0.9600343016472701</v>
       </c>
       <c r="Q4">
-        <v>29.0663109843595</v>
+        <v>21.17428113115401</v>
       </c>
       <c r="R4">
-        <v>-90.52711984668144</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>150.3834595079708</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>29.99999999942158</v>
+        <v>21.17428113131171</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>149.9999999998209</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O6">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>149.9999999998209</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.092177903652934</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.078560055256258</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.089909805515241</v>
+        <v>1.073420542971326</v>
       </c>
       <c r="Q2">
-        <v>29.49023960247584</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.23666155032254</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>150.2459170073016</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.59659452480627</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.421579535282145</v>
+        <v>1.211666286235112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.43588557367165</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>16.41498654739219</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.06278335912045</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9891793628955214</v>
+        <v>0.8723446855807018</v>
       </c>
       <c r="P3">
-        <v>1.045949625268017</v>
+        <v>0.9600343016410947</v>
       </c>
       <c r="Q3">
-        <v>27.13325974900417</v>
+        <v>21.17428113068095</v>
       </c>
       <c r="R3">
-        <v>-91.69953437667314</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>151.1900303807082</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>1.145512290512555</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.087295498353202</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>1.062959741151789</v>
+        <v>0.8723446855803992</v>
       </c>
       <c r="P4">
-        <v>1.08193225533879</v>
+        <v>0.9600343016472701</v>
       </c>
       <c r="Q4">
-        <v>29.0663109843595</v>
+        <v>21.17428113115401</v>
       </c>
       <c r="R4">
-        <v>-90.52711984668144</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>150.3834595079708</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>29.99999999942158</v>
+        <v>21.17428113131171</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>149.9999999998209</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002384269</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O6">
-        <v>1.100000023830772</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.100000023832296</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>29.99999999942158</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084032</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>149.9999999998209</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782291</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841015</v>
+        <v>4.864249469156538</v>
       </c>
       <c r="D3">
-        <v>8.255469890763207</v>
+        <v>3.420873634629109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846042</v>
       </c>
       <c r="G3">
-        <v>95.32595527437977</v>
+        <v>39.50084627633619</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469925</v>
+        <v>0.838320383102353</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465951</v>
+        <v>0.8383203831022643</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851797</v>
+        <v>-5.989874420578551</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.532218402085467</v>
+        <v>1.541818903287516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360206</v>
+        <v>0.8383203830713342</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332807</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.921061297676768</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558401</v>
+        <v>-5.989874417367652</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609927</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297368</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609928</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297356</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8428,22 +8428,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9388786017913194</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232744091</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>0.9532466953638354</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.63022450782291</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898491</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>155.0366063403185</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.246283753841015</v>
+        <v>4.864249469156538</v>
       </c>
       <c r="D3">
-        <v>8.255469890763207</v>
+        <v>3.420873634629109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>106.7668882856755</v>
+        <v>56.16751480846042</v>
       </c>
       <c r="G3">
-        <v>95.32595527437977</v>
+        <v>39.50084627633619</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.8331003823469925</v>
+        <v>0.838320383102353</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8331003823465951</v>
+        <v>0.8383203831022643</v>
       </c>
       <c r="Q3">
-        <v>-1.955830454851797</v>
+        <v>-5.989874420578551</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>178.0441695447659</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.532218402085467</v>
+        <v>1.541818903287516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9141756166360206</v>
+        <v>0.8383203830713342</v>
       </c>
       <c r="O4">
-        <v>0.6666666666332807</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.921061297676768</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>20.74808740558401</v>
+        <v>-5.989874417367652</v>
       </c>
       <c r="R4">
-        <v>-90.00000000552933</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.1491777102416</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609927</v>
       </c>
       <c r="O5">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q5">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297368</v>
       </c>
       <c r="R5">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000027616</v>
+        <v>0.8383203830609928</v>
       </c>
       <c r="O6">
-        <v>0.999999999942627</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999468664</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q6">
-        <v>29.99999999685854</v>
+        <v>-5.989874416297356</v>
       </c>
       <c r="R6">
-        <v>-90.00000000566756</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>149.9999999998053</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890910045655699</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.971246971741263</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9888453263640931</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.2829555776831</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.13866686470811</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.4649615367157</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.398337465277358</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.163220233293771</v>
+        <v>1.011025655018906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.14661023991643</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>13.43171029637956</v>
+        <v>11.67431868165566</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9520850263111387</v>
+        <v>0.972755256451633</v>
       </c>
       <c r="O3">
-        <v>0.861849483587251</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9446139127322337</v>
+        <v>0.8786293331945183</v>
       </c>
       <c r="Q3">
-        <v>26.23196055764161</v>
+        <v>20.76298901305286</v>
       </c>
       <c r="R3">
-        <v>-91.23559782375305</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>152.1817448625048</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.8213292257179374</v>
+        <v>0.8163878929598346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9835634445070007</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.9539031440605306</v>
+        <v>0.7848521014214149</v>
       </c>
       <c r="P4">
-        <v>0.9813829289617835</v>
+        <v>0.8786293332052802</v>
       </c>
       <c r="Q4">
-        <v>28.78497002029057</v>
+        <v>20.76298901387265</v>
       </c>
       <c r="R4">
-        <v>-90.37209378507785</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>150.699849065203</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O5">
-        <v>0.999999999993707</v>
+        <v>0.78485210142394</v>
       </c>
       <c r="P5">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>29.99999999950569</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S5">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O6">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P6">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999950569</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S6">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9890910045655699</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.971246971741263</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9888453263640931</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.2829555776831</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.13866686470811</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>150.4649615367157</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.398337465277358</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.163220233293771</v>
+        <v>1.011025655018906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.14661023991643</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>13.43171029637956</v>
+        <v>11.67431868165566</v>
       </c>
       <c r="H3">
-        <v>10.65491498231263</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>2.173959091208117</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274778934755</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926165106</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.6750274778829967</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>0.9252286926172852</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>0.9520850263111387</v>
+        <v>0.972755256451633</v>
       </c>
       <c r="O3">
-        <v>0.861849483587251</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9446139127322337</v>
+        <v>0.8786293331945183</v>
       </c>
       <c r="Q3">
-        <v>26.23196055764161</v>
+        <v>20.76298901305286</v>
       </c>
       <c r="R3">
-        <v>-91.23559782375305</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>152.1817448625048</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.8213292257179374</v>
+        <v>0.8163878929598346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9835634445070007</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.9539031440605306</v>
+        <v>0.7848521014214149</v>
       </c>
       <c r="P4">
-        <v>0.9813829289617835</v>
+        <v>0.8786293332052802</v>
       </c>
       <c r="Q4">
-        <v>28.78497002029057</v>
+        <v>20.76298901387265</v>
       </c>
       <c r="R4">
-        <v>-90.37209378507785</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>150.699849065203</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O5">
-        <v>0.999999999993707</v>
+        <v>0.78485210142394</v>
       </c>
       <c r="P5">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>29.99999999950569</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R5">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S5">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.00000000000323</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O6">
-        <v>0.999999999993707</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P6">
-        <v>0.9999999999931208</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>29.99999999950569</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R6">
-        <v>-90.00000000084326</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S6">
-        <v>149.9999999997964</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9734,22 +9734,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9885,22 +9885,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10036,22 +10036,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10187,22 +10187,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10338,22 +10338,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.046595068051294</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930523255</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
-        <v>1.056652021166353</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204031805</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430314934</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>155.0677071883441</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>13.3740502326791</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>154.4302300398571</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>5.549477056495864</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>2.197592797843534</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973781324</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689133369</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.3928146973822385</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>0.7226227689203297</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>0.9526279648092862</v>
+        <v>0.9526279648020819</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.952627964809681</v>
+        <v>0.9526279648025193</v>
       </c>
       <c r="Q3">
-        <v>8.620192215330356E-11</v>
+        <v>-4.057898871037865E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-179.999999999882</v>
+        <v>-179.99999999999</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.020756821999032</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.733333349138041</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.020756821923894</v>
+        <v>0.9526279648292906</v>
       </c>
       <c r="Q4">
-        <v>21.0517244322152</v>
+        <v>1.415050686472405E-09</v>
       </c>
       <c r="R4">
-        <v>-90.00000000625394</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>158.9482755662198</v>
+        <v>179.9999999985763</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10000002386297</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O5">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q5">
-        <v>29.99999999523754</v>
+        <v>1.888097484370796E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10000002386297</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O6">
-        <v>1.100000023704644</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023756181</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q6">
-        <v>29.99999999523754</v>
+        <v>1.888099387923842E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000641916</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000015438</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_1_bus_ward34_resistance.xlsx
@@ -755,13 +755,13 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.890926093052382</v>
+        <v>0.8909260930523819</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033979</v>
+        <v>25.18850204033978</v>
       </c>
       <c r="R2">
         <v>-89.28600430314906</v>
@@ -778,49 +778,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248876</v>
+        <v>4.759944874248877</v>
       </c>
       <c r="D3">
-        <v>4.759944874248876</v>
+        <v>4.759944874248877</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950737</v>
       </c>
       <c r="G3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950737</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020819</v>
+        <v>0.9526279648020823</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025193</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>-4.057898871037865E-12</v>
+        <v>-4.083496739406982E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292906</v>
+        <v>0.9526279648292908</v>
       </c>
       <c r="Q4">
-        <v>1.415050686472405E-09</v>
+        <v>1.415014391500165E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663871</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382142</v>
+        <v>0.9526279648382145</v>
       </c>
       <c r="Q5">
-        <v>1.888097484370796E-09</v>
+        <v>1.888040542729832E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -994,16 +994,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382142</v>
+        <v>0.9526279648382147</v>
       </c>
       <c r="Q6">
-        <v>1.888099387923842E-09</v>
+        <v>1.888046398187634E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
         <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1145,49 +1145,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765317</v>
+        <v>0.7109795688765314</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381406</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293675</v>
+        <v>17.92198046293674</v>
       </c>
       <c r="R3">
         <v>-106.5279586928746</v>
@@ -1240,16 +1240,16 @@
         <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760389</v>
+        <v>0.7109795688760384</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531272</v>
+        <v>0.9171656569531277</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336738</v>
+        <v>17.92198046336737</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1299,16 +1299,16 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758741</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351092</v>
+        <v>17.92198046351091</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896353</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
         <v>158.1868465770934</v>
@@ -1358,16 +1358,16 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758741</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351091</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896353</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
         <v>158.1868465770934</v>
@@ -1498,7 +1498,7 @@
         <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-91.92524130249696</v>
+        <v>-91.92524130249694</v>
       </c>
       <c r="S2">
         <v>151.4402860785753</v>
@@ -1512,49 +1512,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="D3">
-        <v>2.010953897753578</v>
+        <v>2.010953897753577</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.22049548391911</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="G3">
-        <v>23.22049548391911</v>
+        <v>23.2204954839191</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>1.107498627573925</v>
+        <v>1.107498627573924</v>
       </c>
       <c r="O3">
-        <v>0.7109795688765317</v>
+        <v>0.7109795688765314</v>
       </c>
       <c r="P3">
-        <v>0.91716565693814</v>
+        <v>0.9171656569381406</v>
       </c>
       <c r="Q3">
-        <v>17.92198046293675</v>
+        <v>17.92198046293674</v>
       </c>
       <c r="R3">
         <v>-106.5279586928746</v>
@@ -1607,16 +1607,16 @@
         <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>0.7109795688760389</v>
+        <v>0.7109795688760384</v>
       </c>
       <c r="P4">
-        <v>0.9171656569531272</v>
+        <v>0.9171656569531277</v>
       </c>
       <c r="Q4">
-        <v>17.92198046336738</v>
+        <v>17.92198046336737</v>
       </c>
       <c r="R4">
-        <v>-106.5279586904451</v>
+        <v>-106.527958690445</v>
       </c>
       <c r="S4">
         <v>158.1868465770594</v>
@@ -1666,16 +1666,16 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758741</v>
       </c>
       <c r="P5">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q5">
-        <v>17.92198046351092</v>
+        <v>17.92198046351091</v>
       </c>
       <c r="R5">
-        <v>-106.5279586896353</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S5">
         <v>158.1868465770934</v>
@@ -1725,16 +1725,16 @@
         <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>0.7109795688758744</v>
+        <v>0.7109795688758741</v>
       </c>
       <c r="P6">
-        <v>0.9171656569581229</v>
+        <v>0.9171656569581236</v>
       </c>
       <c r="Q6">
-        <v>17.92198046351093</v>
+        <v>17.92198046351091</v>
       </c>
       <c r="R6">
-        <v>-106.5279586896353</v>
+        <v>-106.5279586896352</v>
       </c>
       <c r="S6">
         <v>158.1868465770934</v>
@@ -1859,7 +1859,7 @@
         <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888189</v>
       </c>
       <c r="Q2">
         <v>24.75158797610128</v>
@@ -1879,49 +1879,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661919</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>4.133684588661919</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017932</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>47.73167820017932</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841223</v>
+        <v>0.8660254037841222</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.072507624237629E-11</v>
+        <v>3.075715041504724E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597848</v>
+        <v>0.8660254037597849</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085192</v>
       </c>
       <c r="Q4">
-        <v>2.755408590288587E-09</v>
+        <v>2.755444682916125E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.999999997236</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2036,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663637728479492E-09</v>
+        <v>3.663674552621192E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663634956918801E-09</v>
+        <v>3.663684438515626E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2226,7 +2226,7 @@
         <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>0.9574835309888192</v>
+        <v>0.9574835309888189</v>
       </c>
       <c r="Q2">
         <v>24.75158797610128</v>
@@ -2246,49 +2246,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.133684588661919</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="D3">
-        <v>4.133684588661919</v>
+        <v>4.13368458866192</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>47.73167820017932</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="G3">
-        <v>47.73167820017932</v>
+        <v>47.73167820017935</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
-        <v>0.8660254037841223</v>
+        <v>0.8660254037841222</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8660254037841824</v>
+        <v>0.8660254037841818</v>
       </c>
       <c r="Q3">
-        <v>3.072507624237629E-11</v>
+        <v>3.075715041504724E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8660254037597848</v>
+        <v>0.8660254037597849</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8660254038085196</v>
+        <v>0.8660254038085192</v>
       </c>
       <c r="Q4">
-        <v>2.755408590288587E-09</v>
+        <v>2.755444682916125E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>179.9999999972359</v>
+        <v>179.999999997236</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q5">
-        <v>3.663637728479492E-09</v>
+        <v>3.663674552621192E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.866025403816632</v>
+        <v>0.8660254038166316</v>
       </c>
       <c r="Q6">
-        <v>3.663634956918801E-09</v>
+        <v>3.663684438515626E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999963276</v>
+        <v>179.9999999963277</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2593,7 @@
         <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021194</v>
       </c>
       <c r="Q2">
         <v>27.43727595412386</v>
@@ -2613,52 +2613,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.795733578210679</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="D3">
-        <v>1.795733578210679</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="G3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
         <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823895</v>
+        <v>0.6348876951823899</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776827</v>
+        <v>0.8307352055776823</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536514</v>
+        <v>17.57011779536515</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -2708,16 +2708,16 @@
         <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946467</v>
+        <v>0.6348876951946469</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979547</v>
       </c>
       <c r="Q4">
-        <v>17.5701177962944</v>
+        <v>17.57011779629441</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047126</v>
+        <v>0.8307352056047123</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660414</v>
+        <v>17.57011779660416</v>
       </c>
       <c r="R5">
         <v>-106.988581571031</v>
@@ -2823,16 +2823,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047126</v>
+        <v>0.830735205604712</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660414</v>
+        <v>17.57011779660416</v>
       </c>
       <c r="R6">
         <v>-106.988581571031</v>
@@ -2960,7 +2960,7 @@
         <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9648695716021195</v>
+        <v>0.9648695716021194</v>
       </c>
       <c r="Q2">
         <v>27.43727595412386</v>
@@ -2980,52 +2980,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.795733578210679</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="D3">
-        <v>1.795733578210679</v>
+        <v>1.79573357821068</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="G3">
-        <v>20.73534529545571</v>
+        <v>20.73534529545572</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
         <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.6348876951823895</v>
+        <v>0.6348876951823899</v>
       </c>
       <c r="P3">
-        <v>0.8307352055776827</v>
+        <v>0.8307352055776823</v>
       </c>
       <c r="Q3">
-        <v>17.57011779536514</v>
+        <v>17.57011779536515</v>
       </c>
       <c r="R3">
-        <v>-106.9885815758096</v>
+        <v>-106.9885815758097</v>
       </c>
       <c r="S3">
         <v>158.5647675412735</v>
@@ -3075,16 +3075,16 @@
         <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.6348876951946467</v>
+        <v>0.6348876951946469</v>
       </c>
       <c r="P4">
-        <v>0.8307352055979551</v>
+        <v>0.8307352055979547</v>
       </c>
       <c r="Q4">
-        <v>17.5701177962944</v>
+        <v>17.57011779629441</v>
       </c>
       <c r="R4">
-        <v>-106.9885815722256</v>
+        <v>-106.9885815722257</v>
       </c>
       <c r="S4">
         <v>158.5647675409582</v>
@@ -3131,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O5">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P5">
-        <v>0.8307352056047126</v>
+        <v>0.8307352056047123</v>
       </c>
       <c r="Q5">
-        <v>17.57011779660414</v>
+        <v>17.57011779660416</v>
       </c>
       <c r="R5">
         <v>-106.988581571031</v>
@@ -3190,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.005693895246946</v>
+        <v>1.005693895246945</v>
       </c>
       <c r="O6">
-        <v>0.6348876951987324</v>
+        <v>0.6348876951987327</v>
       </c>
       <c r="P6">
-        <v>0.8307352056047126</v>
+        <v>0.830735205604712</v>
       </c>
       <c r="Q6">
-        <v>17.57011779660414</v>
+        <v>17.57011779660416</v>
       </c>
       <c r="R6">
         <v>-106.988581571031</v>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.02449066923465</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023846063</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.082229038046417</v>
       </c>
       <c r="Q2">
-        <v>29.57860611708429</v>
+        <v>28.87390549359185</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>145.9926259511287</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591091</v>
+        <v>3.56085395179079</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528563</v>
+        <v>41.11719975222712</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054064625203946</v>
       </c>
       <c r="I3">
-        <v>2.197592797843465</v>
+        <v>2.174943245955438</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180345</v>
+        <v>0.1077319053180354</v>
       </c>
       <c r="K3">
-        <v>2.308438694642959</v>
+        <v>2.308438694642965</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132185</v>
+        <v>0.1077319054132166</v>
       </c>
       <c r="M3">
-        <v>2.308438694642675</v>
+        <v>2.308438694642612</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249562</v>
+        <v>0.719772981887441</v>
       </c>
       <c r="O3">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P3">
-        <v>1.019342441086347</v>
+        <v>1.090886212342607</v>
       </c>
       <c r="Q3">
-        <v>23.9380781770396</v>
+        <v>19.86341864055566</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999737</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S3">
-        <v>123.4311965199737</v>
+        <v>128.3563653400219</v>
       </c>
       <c r="T3">
-        <v>4.269054431591091</v>
+        <v>3.56085395179079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.614443297239881</v>
+        <v>0.7197729818936045</v>
       </c>
       <c r="O4">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>1.090886212319926</v>
       </c>
       <c r="Q4">
-        <v>23.93807817967972</v>
+        <v>19.86341864262314</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999774</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>128.3563653407613</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448579</v>
+        <v>0.7197729818956607</v>
       </c>
       <c r="O5">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P5">
-        <v>1.019342441052391</v>
+        <v>1.090886212312367</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055967</v>
+        <v>19.86341864331225</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999791</v>
+        <v>-89.99999999999815</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>128.3563653410079</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448579</v>
+        <v>0.7197729818956607</v>
       </c>
       <c r="O6">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>1.090886212312367</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055967</v>
+        <v>19.86341864331225</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999791</v>
+        <v>-89.99999999999815</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>128.3563653410079</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.006400165160399</v>
+        <v>1.02449066923465</v>
       </c>
       <c r="O2">
-        <v>1.100000023846833</v>
+        <v>1.100000023846063</v>
       </c>
       <c r="P2">
-        <v>1.062983180491356</v>
+        <v>1.082229038046417</v>
       </c>
       <c r="Q2">
-        <v>29.57860611708429</v>
+        <v>28.87390549359185</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>145.4251889501103</v>
+        <v>145.9926259511287</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4.269054431591091</v>
+        <v>3.56085395179079</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>49.29479450528563</v>
+        <v>41.11719975222712</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054064625203946</v>
       </c>
       <c r="I3">
-        <v>2.197592797843465</v>
+        <v>2.174943245955438</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180345</v>
+        <v>0.1077319053180354</v>
       </c>
       <c r="K3">
-        <v>2.308438694642959</v>
+        <v>2.308438694642965</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132185</v>
+        <v>0.1077319054132166</v>
       </c>
       <c r="M3">
-        <v>2.308438694642675</v>
+        <v>2.308438694642612</v>
       </c>
       <c r="N3">
-        <v>0.6144432972249562</v>
+        <v>0.719772981887441</v>
       </c>
       <c r="O3">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P3">
-        <v>1.019342441086347</v>
+        <v>1.090886212342607</v>
       </c>
       <c r="Q3">
-        <v>23.9380781770396</v>
+        <v>19.86341864055566</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999737</v>
+        <v>-89.99999999999766</v>
       </c>
       <c r="S3">
-        <v>123.4311965199737</v>
+        <v>128.3563653400219</v>
       </c>
       <c r="T3">
-        <v>4.269054431591091</v>
+        <v>3.56085395179079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.614443297239881</v>
+        <v>0.7197729818936045</v>
       </c>
       <c r="O4">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P4">
-        <v>1.019342441060879</v>
+        <v>1.090886212319926</v>
       </c>
       <c r="Q4">
-        <v>23.93807817967972</v>
+        <v>19.86341864262314</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999774</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>123.4311965210633</v>
+        <v>128.3563653407613</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6144432972448579</v>
+        <v>0.7197729818956607</v>
       </c>
       <c r="O5">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P5">
-        <v>1.019342441052391</v>
+        <v>1.090886212312367</v>
       </c>
       <c r="Q5">
-        <v>23.93807818055967</v>
+        <v>19.86341864331225</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999791</v>
+        <v>-89.99999999999815</v>
       </c>
       <c r="S5">
-        <v>123.4311965214265</v>
+        <v>128.3563653410079</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6144432972448579</v>
+        <v>0.7197729818956607</v>
       </c>
       <c r="O6">
-        <v>1.100000023852325</v>
+        <v>1.100000023851444</v>
       </c>
       <c r="P6">
-        <v>1.019342441052391</v>
+        <v>1.090886212312367</v>
       </c>
       <c r="Q6">
-        <v>23.93807818055967</v>
+        <v>19.86341864331225</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999791</v>
+        <v>-89.99999999999815</v>
       </c>
       <c r="S6">
-        <v>123.4311965214265</v>
+        <v>128.3563653410079</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.0742143941955</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023843268</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.091795496087861</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>29.72835455712677</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>148.6938053744225</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>1.195255447511844</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>13.80162108742659</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054064625203946</v>
       </c>
       <c r="I3">
-        <v>2.197592797843465</v>
+        <v>2.174943245955438</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180345</v>
+        <v>0.1077319053180354</v>
       </c>
       <c r="K3">
-        <v>2.308438694642959</v>
+        <v>2.308438694642965</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132185</v>
+        <v>0.1077319054132166</v>
       </c>
       <c r="M3">
-        <v>2.308438694642675</v>
+        <v>2.308438694642612</v>
       </c>
       <c r="N3">
-        <v>0.956852538740053</v>
+        <v>0.9667090997926091</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.070689757056181</v>
       </c>
       <c r="Q3">
-        <v>28.34202686749199</v>
+        <v>27.99074334816935</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S3">
-        <v>142.5196106427089</v>
+        <v>142.8700109460982</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>1.195255447511844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446287</v>
+        <v>0.9667090997964245</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P4">
-        <v>1.06123325972225</v>
+        <v>1.070689757050429</v>
       </c>
       <c r="Q4">
-        <v>28.3420268679895</v>
+        <v>27.99074334864988</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999687</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>142.8700109464658</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461546</v>
+        <v>0.966709099797697</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P5">
-        <v>1.061233259720348</v>
+        <v>1.070689757048512</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815532</v>
+        <v>27.99074334881003</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>142.8700109465884</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461546</v>
+        <v>0.9667090997976968</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P6">
-        <v>1.061233259720348</v>
+        <v>1.070689757048512</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815532</v>
+        <v>27.99074334881003</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999685</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>142.8700109465884</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.072434586115867</v>
+        <v>1.0742143941955</v>
       </c>
       <c r="O2">
-        <v>1.100000023843344</v>
+        <v>1.100000023843268</v>
       </c>
       <c r="P2">
-        <v>1.089822796270588</v>
+        <v>1.091795496087861</v>
       </c>
       <c r="Q2">
-        <v>29.7961857047866</v>
+        <v>29.72835455712677</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.6442299648718</v>
+        <v>148.6938053744225</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.265222117290822</v>
+        <v>1.195255447511844</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.60952660005049</v>
+        <v>13.80162108742659</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5.549477056495878</v>
+        <v>8.054064625203946</v>
       </c>
       <c r="I3">
-        <v>2.197592797843465</v>
+        <v>2.174943245955438</v>
       </c>
       <c r="J3">
-        <v>0.1077319053180345</v>
+        <v>0.1077319053180354</v>
       </c>
       <c r="K3">
-        <v>2.308438694642959</v>
+        <v>2.308438694642965</v>
       </c>
       <c r="L3">
-        <v>0.1077319054132185</v>
+        <v>0.1077319054132166</v>
       </c>
       <c r="M3">
-        <v>2.308438694642675</v>
+        <v>2.308438694642612</v>
       </c>
       <c r="N3">
-        <v>0.956852538740053</v>
+        <v>0.9667090997926091</v>
       </c>
       <c r="O3">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P3">
-        <v>1.061233259727958</v>
+        <v>1.070689757056181</v>
       </c>
       <c r="Q3">
-        <v>28.34202686749199</v>
+        <v>27.99074334816935</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999667</v>
+        <v>-89.99999999999676</v>
       </c>
       <c r="S3">
-        <v>142.5196106427089</v>
+        <v>142.8700109460982</v>
       </c>
       <c r="T3">
-        <v>1.265222117290822</v>
+        <v>1.195255447511844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9568525387446287</v>
+        <v>0.9667090997964245</v>
       </c>
       <c r="O4">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P4">
-        <v>1.06123325972225</v>
+        <v>1.070689757050429</v>
       </c>
       <c r="Q4">
-        <v>28.3420268679895</v>
+        <v>27.99074334864988</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999679</v>
+        <v>-89.99999999999687</v>
       </c>
       <c r="S4">
-        <v>142.5196106431179</v>
+        <v>142.8700109464658</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9568525387461546</v>
+        <v>0.966709099797697</v>
       </c>
       <c r="O5">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P5">
-        <v>1.061233259720348</v>
+        <v>1.070689757048512</v>
       </c>
       <c r="Q5">
-        <v>28.34202686815532</v>
+        <v>27.99074334881003</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999685</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S5">
-        <v>142.5196106432543</v>
+        <v>142.8700109465884</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9568525387461546</v>
+        <v>0.9667090997976968</v>
       </c>
       <c r="O6">
-        <v>1.100000023845068</v>
+        <v>1.100000023844987</v>
       </c>
       <c r="P6">
-        <v>1.061233259720348</v>
+        <v>1.070689757048512</v>
       </c>
       <c r="Q6">
-        <v>28.34202686815532</v>
+        <v>27.99074334881003</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999685</v>
+        <v>-89.99999999999692</v>
       </c>
       <c r="S6">
-        <v>142.5196106432543</v>
+        <v>142.8700109465884</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.93808824098085</v>
+        <v>0.9491405680378997</v>
       </c>
       <c r="O2">
-        <v>0.9999999999958459</v>
+        <v>0.9999999999962365</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284133</v>
+        <v>0.9984221455280988</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>28.4395551048956</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>146.7114694411939</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.675869257225819</v>
+        <v>2.294568861135809</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951142</v>
+        <v>26.49539899301784</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208053</v>
+        <v>2.140354279306601</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.115351859512899</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540675817</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594711207</v>
       </c>
       <c r="M3">
-        <v>2.416397540675402</v>
+        <v>2.416397540675328</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848423</v>
+        <v>0.7714529921705001</v>
       </c>
       <c r="O3">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987885</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>1.036669842611492</v>
       </c>
       <c r="Q3">
-        <v>19.2282476408361</v>
+        <v>19.71376897042018</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>134.4710461957127</v>
       </c>
       <c r="T3">
-        <v>2.675869257225819</v>
+        <v>2.294568861135809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7181269486975268</v>
+        <v>0.7714529921793237</v>
       </c>
       <c r="O4">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987885</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>1.036669842592438</v>
       </c>
       <c r="Q4">
-        <v>19.2282476430901</v>
+        <v>19.71376897228027</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999822</v>
+        <v>-89.99999999999829</v>
       </c>
       <c r="S4">
-        <v>131.6084190977144</v>
+        <v>134.4710461967349</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7181269487017575</v>
+        <v>0.7714529921822671</v>
       </c>
       <c r="O5">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987884</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>1.036669842586088</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384137</v>
+        <v>19.71376897290023</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999845</v>
+        <v>-89.99999999999851</v>
       </c>
       <c r="S5">
-        <v>131.6084190981349</v>
+        <v>134.4710461970757</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017578</v>
+        <v>0.7714529921822671</v>
       </c>
       <c r="O6">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987885</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>1.036669842586088</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384137</v>
+        <v>19.71376897290023</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999847</v>
+        <v>-89.99999999999849</v>
       </c>
       <c r="S6">
-        <v>131.6084190981349</v>
+        <v>134.4710461970757</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.93808824098085</v>
+        <v>0.9491405680378997</v>
       </c>
       <c r="O2">
-        <v>0.9999999999958459</v>
+        <v>0.9999999999962365</v>
       </c>
       <c r="P2">
-        <v>0.9923448102284133</v>
+        <v>0.9984221455280988</v>
       </c>
       <c r="Q2">
-        <v>28.50094802036746</v>
+        <v>28.4395551048956</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.9999999999964</v>
       </c>
       <c r="S2">
-        <v>146.1769103581508</v>
+        <v>146.7114694411939</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.675869257225819</v>
+        <v>2.294568861135809</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>30.89827671951142</v>
+        <v>26.49539899301784</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208053</v>
+        <v>2.140354279306601</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.115351859512899</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540675817</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594711207</v>
       </c>
       <c r="M3">
-        <v>2.416397540675402</v>
+        <v>2.416397540675328</v>
       </c>
       <c r="N3">
-        <v>0.7181269486848423</v>
+        <v>0.7714529921705001</v>
       </c>
       <c r="O3">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987885</v>
       </c>
       <c r="P3">
-        <v>1.021127642238569</v>
+        <v>1.036669842611492</v>
       </c>
       <c r="Q3">
-        <v>19.2282476408361</v>
+        <v>19.71376897042018</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999775</v>
+        <v>-89.99999999999787</v>
       </c>
       <c r="S3">
-        <v>131.608419096453</v>
+        <v>134.4710461957127</v>
       </c>
       <c r="T3">
-        <v>2.675869257225819</v>
+        <v>2.294568861135809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7181269486975268</v>
+        <v>0.7714529921793237</v>
       </c>
       <c r="O4">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987885</v>
       </c>
       <c r="P4">
-        <v>1.02112764221727</v>
+        <v>1.036669842592438</v>
       </c>
       <c r="Q4">
-        <v>19.2282476430901</v>
+        <v>19.71376897228027</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999822</v>
+        <v>-89.99999999999829</v>
       </c>
       <c r="S4">
-        <v>131.6084190977144</v>
+        <v>134.4710461967349</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7181269487017575</v>
+        <v>0.7714529921822671</v>
       </c>
       <c r="O5">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987884</v>
       </c>
       <c r="P5">
-        <v>1.021127642210171</v>
+        <v>1.036669842586088</v>
       </c>
       <c r="Q5">
-        <v>19.22824764384137</v>
+        <v>19.71376897290023</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999845</v>
+        <v>-89.99999999999851</v>
       </c>
       <c r="S5">
-        <v>131.6084190981349</v>
+        <v>134.4710461970757</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7181269487017578</v>
+        <v>0.7714529921822671</v>
       </c>
       <c r="O6">
-        <v>0.999999999998971</v>
+        <v>0.9999999999987885</v>
       </c>
       <c r="P6">
-        <v>1.021127642210171</v>
+        <v>1.036669842586088</v>
       </c>
       <c r="Q6">
-        <v>19.22824764384137</v>
+        <v>19.71376897290023</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999847</v>
+        <v>-89.99999999999849</v>
       </c>
       <c r="S6">
-        <v>131.6084190981349</v>
+        <v>134.4710461970757</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044824</v>
+        <v>0.9769003850560896</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.9999999999985937</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976996</v>
+        <v>0.9946659515193177</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>29.59696489849911</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>148.6484120091973</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880166</v>
+        <v>0.9649292481453756</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>11.14204322331352</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208053</v>
+        <v>2.140354279306601</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.115351859512899</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540675817</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594711207</v>
       </c>
       <c r="M3">
-        <v>2.416397540675402</v>
+        <v>2.416397540675328</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.8908529962656991</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998316</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9854924270252653</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331513</v>
+        <v>27.48997495230162</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999682</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>143.3121033083103</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.9649292481453756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.8908529962724839</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864569</v>
+        <v>0.9854924270202335</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389995</v>
+        <v>27.48997495287211</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999699</v>
+        <v>-89.99999999999706</v>
       </c>
       <c r="S4">
-        <v>142.9557126462243</v>
+        <v>143.3121033088899</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8827270761516727</v>
+        <v>0.8908529962747463</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848257</v>
+        <v>0.9854924270185567</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>27.48997495306226</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999716</v>
       </c>
       <c r="S5">
-        <v>142.9557126464337</v>
+        <v>143.3121033090831</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8827270761516727</v>
+        <v>0.8908529962747463</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9854924270185567</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409485</v>
+        <v>27.48997495306226</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999716</v>
       </c>
       <c r="S6">
-        <v>142.9557126464337</v>
+        <v>143.3121033090831</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9752784142044824</v>
+        <v>0.9769003850560896</v>
       </c>
       <c r="O2">
-        <v>0.9999999999985698</v>
+        <v>0.9999999999985937</v>
       </c>
       <c r="P2">
-        <v>0.9932418816976996</v>
+        <v>0.9946659515193177</v>
       </c>
       <c r="Q2">
-        <v>29.63976589252149</v>
+        <v>29.59696489849911</v>
       </c>
       <c r="R2">
         <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.5870138120459</v>
+        <v>148.6484120091973</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.019575804880166</v>
+        <v>0.9649292481453756</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.77304730813587</v>
+        <v>11.14204322331352</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>10.65491498231265</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208053</v>
+        <v>2.140354279306601</v>
       </c>
       <c r="J3">
-        <v>0.1153518595129096</v>
+        <v>0.115351859512899</v>
       </c>
       <c r="K3">
-        <v>2.41639754067582</v>
+        <v>2.416397540675817</v>
       </c>
       <c r="L3">
-        <v>0.1153518594711212</v>
+        <v>0.1153518594711207</v>
       </c>
       <c r="M3">
-        <v>2.416397540675402</v>
+        <v>2.416397540675328</v>
       </c>
       <c r="N3">
-        <v>0.8827270761415116</v>
+        <v>0.8908529962656991</v>
       </c>
       <c r="O3">
-        <v>0.9999999999998316</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P3">
-        <v>0.9794355975913516</v>
+        <v>0.9854924270252653</v>
       </c>
       <c r="Q3">
-        <v>27.67272062331513</v>
+        <v>27.48997495230162</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999682</v>
+        <v>-89.9999999999969</v>
       </c>
       <c r="S3">
-        <v>142.9557126455962</v>
+        <v>143.3121033083103</v>
       </c>
       <c r="T3">
-        <v>1.019575804880166</v>
+        <v>0.9649292481453756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8827270761491318</v>
+        <v>0.8908529962724839</v>
       </c>
       <c r="O4">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P4">
-        <v>0.9794355975864569</v>
+        <v>0.9854924270202335</v>
       </c>
       <c r="Q4">
-        <v>27.67272062389995</v>
+        <v>27.48997495287211</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999699</v>
+        <v>-89.99999999999706</v>
       </c>
       <c r="S4">
-        <v>142.9557126462243</v>
+        <v>143.3121033088899</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8827270761516727</v>
+        <v>0.8908529962747463</v>
       </c>
       <c r="O5">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P5">
-        <v>0.9794355975848257</v>
+        <v>0.9854924270185567</v>
       </c>
       <c r="Q5">
-        <v>27.67272062409485</v>
+        <v>27.48997495306226</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999716</v>
       </c>
       <c r="S5">
-        <v>142.9557126464337</v>
+        <v>143.3121033090831</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8827270761516727</v>
+        <v>0.8908529962747463</v>
       </c>
       <c r="O6">
-        <v>0.9999999999998315</v>
+        <v>0.9999999999997723</v>
       </c>
       <c r="P6">
-        <v>0.9794355975848256</v>
+        <v>0.9854924270185567</v>
       </c>
       <c r="Q6">
-        <v>27.67272062409485</v>
+        <v>27.48997495306226</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999707</v>
+        <v>-89.99999999999716</v>
       </c>
       <c r="S6">
-        <v>142.9557126464337</v>
+        <v>143.3121033090831</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.027542648721926</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534472</v>
+        <v>0.8909260930530865</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.055628297146753</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422531</v>
+        <v>24.39021883321955</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430313398</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.7716756480539</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.763355690017315</v>
       </c>
       <c r="D3">
-        <v>3.634748069092455</v>
+        <v>3.802695151648083</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>66.54949918134116</v>
       </c>
       <c r="G3">
-        <v>41.97045552254002</v>
+        <v>43.90974138900212</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467565</v>
+        <v>0.9067349115692269</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9067349115708243</v>
       </c>
       <c r="Q3">
-        <v>-9.283488353327451</v>
+        <v>-7.211465257615657</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>172.788534742376</v>
       </c>
       <c r="T3">
-        <v>2.917997876526143</v>
+        <v>2.173756570555485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120124</v>
+        <v>0.9067349115355221</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750353</v>
+        <v>0.9067349115961667</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423932</v>
+        <v>-7.211465255906788</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460671</v>
+        <v>172.7885347415513</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8708416185004291</v>
+        <v>0.9067349115242859</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836059</v>
+        <v>0.9067349116046134</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789442</v>
+        <v>-7.211465255337187</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458697</v>
+        <v>172.7885347412764</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8708416185004291</v>
+        <v>0.9067349115242859</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836058</v>
+        <v>0.9067349116046134</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789437</v>
+        <v>-7.211465255337184</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458697</v>
+        <v>172.7885347412764</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.01842373929984</v>
+        <v>1.027542648721926</v>
       </c>
       <c r="O2">
-        <v>0.8909260930534472</v>
+        <v>0.8909260930530865</v>
       </c>
       <c r="P2">
-        <v>1.050632341056126</v>
+        <v>1.055628297146753</v>
       </c>
       <c r="Q2">
-        <v>24.33474940422531</v>
+        <v>24.39021883321955</v>
       </c>
       <c r="R2">
-        <v>-89.2860043031224</v>
+        <v>-89.28600430313398</v>
       </c>
       <c r="S2">
-        <v>153.3531572010471</v>
+        <v>153.7716756480539</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.029934716893444</v>
+        <v>5.763355690017315</v>
       </c>
       <c r="D3">
-        <v>3.634748069092455</v>
+        <v>3.802695151648083</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>69.627688639886</v>
+        <v>66.54949918134116</v>
       </c>
       <c r="G3">
-        <v>41.97045552254002</v>
+        <v>43.90974138900212</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>0.8708416185467565</v>
+        <v>0.9067349115692269</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8708416185493206</v>
+        <v>0.9067349115708243</v>
       </c>
       <c r="Q3">
-        <v>-9.283488353327451</v>
+        <v>-7.211465257615657</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>170.7165116466594</v>
+        <v>172.788534742376</v>
       </c>
       <c r="T3">
-        <v>2.917997876526143</v>
+        <v>2.173756570555485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8708416185120124</v>
+        <v>0.9067349115355221</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8708416185750353</v>
+        <v>0.9067349115961667</v>
       </c>
       <c r="Q4">
-        <v>-9.283488351423932</v>
+        <v>-7.211465255906788</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>170.7165116460671</v>
+        <v>172.7885347415513</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8708416185004291</v>
+        <v>0.9067349115242859</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8708416185836059</v>
+        <v>0.9067349116046134</v>
       </c>
       <c r="Q5">
-        <v>-9.283488350789442</v>
+        <v>-7.211465255337187</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>170.7165116458697</v>
+        <v>172.7885347412764</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8708416185004291</v>
+        <v>0.9067349115242859</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8708416185836058</v>
+        <v>0.9067349116046134</v>
       </c>
       <c r="Q6">
-        <v>-9.283488350789437</v>
+        <v>-7.211465255337184</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>170.7165116458697</v>
+        <v>172.7885347412764</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088142600877449</v>
+        <v>1.089678208994922</v>
       </c>
       <c r="O2">
-        <v>1.052967690033747</v>
+        <v>1.052967690033682</v>
       </c>
       <c r="P2">
-        <v>1.073420542971326</v>
+        <v>1.074678225923449</v>
       </c>
       <c r="Q2">
-        <v>28.40667986457017</v>
+        <v>28.37884889283101</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238048</v>
+        <v>-91.44286082238096</v>
       </c>
       <c r="S2">
-        <v>150.106877722634</v>
+        <v>150.1616990322759</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.484195649880106</v>
+        <v>1.484131862335969</v>
       </c>
       <c r="D3">
-        <v>1.211666286235112</v>
+        <v>1.159410768062857</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.13801515976701</v>
+        <v>17.13727860465145</v>
       </c>
       <c r="G3">
-        <v>13.99111713051673</v>
+        <v>13.38772238084883</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>1.056537320427519</v>
+        <v>1.064969149302586</v>
       </c>
       <c r="O3">
-        <v>0.8723446855807018</v>
+        <v>0.8723446855806307</v>
       </c>
       <c r="P3">
-        <v>0.9600343016410947</v>
+        <v>0.9663665554643142</v>
       </c>
       <c r="Q3">
-        <v>21.17428113068095</v>
+        <v>21.1044759687524</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396145</v>
+        <v>-100.0510163396176</v>
       </c>
       <c r="S3">
-        <v>150.1850824569241</v>
+        <v>150.5250779130625</v>
       </c>
       <c r="T3">
-        <v>1.119849020604905</v>
+        <v>1.002935403756685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.056537320420606</v>
+        <v>1.064969149295239</v>
       </c>
       <c r="O4">
-        <v>0.8723446855803992</v>
+        <v>0.872344685580328</v>
       </c>
       <c r="P4">
-        <v>0.9600343016472701</v>
+        <v>0.9663665554705342</v>
       </c>
       <c r="Q4">
-        <v>21.17428113115401</v>
+        <v>21.10447596920214</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383996</v>
+        <v>-100.0510163384028</v>
       </c>
       <c r="S4">
-        <v>150.1850824573215</v>
+        <v>150.5250779134223</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.056537320418302</v>
+        <v>1.064969149292789</v>
       </c>
       <c r="O5">
-        <v>0.8723446855802981</v>
+        <v>0.872344685580227</v>
       </c>
       <c r="P5">
-        <v>0.9600343016493282</v>
+        <v>0.9663665554726073</v>
       </c>
       <c r="Q5">
-        <v>21.17428113131171</v>
+        <v>21.10447596935206</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379978</v>
       </c>
       <c r="S5">
-        <v>150.1850824574539</v>
+        <v>150.5250779135423</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.056537320418302</v>
+        <v>1.064969149292789</v>
       </c>
       <c r="O6">
-        <v>0.8723446855802981</v>
+        <v>0.872344685580227</v>
       </c>
       <c r="P6">
-        <v>0.9600343016493282</v>
+        <v>0.9663665554726073</v>
       </c>
       <c r="Q6">
-        <v>21.17428113131172</v>
+        <v>21.10447596935206</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379978</v>
       </c>
       <c r="S6">
-        <v>150.1850824574539</v>
+        <v>150.5250779135423</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.088142600877449</v>
+        <v>1.089678208994922</v>
       </c>
       <c r="O2">
-        <v>1.052967690033747</v>
+        <v>1.052967690033682</v>
       </c>
       <c r="P2">
-        <v>1.073420542971326</v>
+        <v>1.074678225923449</v>
       </c>
       <c r="Q2">
-        <v>28.40667986457017</v>
+        <v>28.37884889283101</v>
       </c>
       <c r="R2">
-        <v>-91.44286082238048</v>
+        <v>-91.44286082238096</v>
       </c>
       <c r="S2">
-        <v>150.106877722634</v>
+        <v>150.1616990322759</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.484195649880106</v>
+        <v>1.484131862335969</v>
       </c>
       <c r="D3">
-        <v>1.211666286235112</v>
+        <v>1.159410768062857</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.13801515976701</v>
+        <v>17.13727860465145</v>
       </c>
       <c r="G3">
-        <v>13.99111713051673</v>
+        <v>13.38772238084883</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>1.056537320427519</v>
+        <v>1.064969149302586</v>
       </c>
       <c r="O3">
-        <v>0.8723446855807018</v>
+        <v>0.8723446855806307</v>
       </c>
       <c r="P3">
-        <v>0.9600343016410947</v>
+        <v>0.9663665554643142</v>
       </c>
       <c r="Q3">
-        <v>21.17428113068095</v>
+        <v>21.1044759687524</v>
       </c>
       <c r="R3">
-        <v>-100.0510163396145</v>
+        <v>-100.0510163396176</v>
       </c>
       <c r="S3">
-        <v>150.1850824569241</v>
+        <v>150.5250779130625</v>
       </c>
       <c r="T3">
-        <v>1.119849020604905</v>
+        <v>1.002935403756685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.056537320420606</v>
+        <v>1.064969149295239</v>
       </c>
       <c r="O4">
-        <v>0.8723446855803992</v>
+        <v>0.872344685580328</v>
       </c>
       <c r="P4">
-        <v>0.9600343016472701</v>
+        <v>0.9663665554705342</v>
       </c>
       <c r="Q4">
-        <v>21.17428113115401</v>
+        <v>21.10447596920214</v>
       </c>
       <c r="R4">
-        <v>-100.0510163383996</v>
+        <v>-100.0510163384028</v>
       </c>
       <c r="S4">
-        <v>150.1850824573215</v>
+        <v>150.5250779134223</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.056537320418302</v>
+        <v>1.064969149292789</v>
       </c>
       <c r="O5">
-        <v>0.8723446855802981</v>
+        <v>0.872344685580227</v>
       </c>
       <c r="P5">
-        <v>0.9600343016493282</v>
+        <v>0.9663665554726073</v>
       </c>
       <c r="Q5">
-        <v>21.17428113131171</v>
+        <v>21.10447596935206</v>
       </c>
       <c r="R5">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379978</v>
       </c>
       <c r="S5">
-        <v>150.1850824574539</v>
+        <v>150.5250779135423</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.056537320418302</v>
+        <v>1.064969149292789</v>
       </c>
       <c r="O6">
-        <v>0.8723446855802981</v>
+        <v>0.872344685580227</v>
       </c>
       <c r="P6">
-        <v>0.9600343016493282</v>
+        <v>0.9663665554726073</v>
       </c>
       <c r="Q6">
-        <v>21.17428113131172</v>
+        <v>21.10447596935206</v>
       </c>
       <c r="R6">
-        <v>-100.0510163379946</v>
+        <v>-100.0510163379978</v>
       </c>
       <c r="S6">
-        <v>150.1850824574539</v>
+        <v>150.5250779135423</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169504</v>
+        <v>0.9366260695576809</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.793667423272952</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541356</v>
+        <v>0.9588753018910026</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161584</v>
+        <v>24.06087215328627</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897499</v>
+        <v>-89.22492623897374</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.5715194669469</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156538</v>
+        <v>4.744874843602974</v>
       </c>
       <c r="D3">
-        <v>3.420873634629109</v>
+        <v>3.530967859882375</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846042</v>
+        <v>54.7890953645052</v>
       </c>
       <c r="G3">
-        <v>39.50084627633619</v>
+        <v>40.77210488806011</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
-        <v>0.838320383102353</v>
+        <v>0.846822213617084</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022643</v>
+        <v>0.8468222136170559</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578551</v>
+        <v>-4.978632039030051</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793317</v>
+        <v>175.0213679608873</v>
       </c>
       <c r="T3">
-        <v>1.541818903287516</v>
+        <v>1.270334406324665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713342</v>
+        <v>0.8468222135869098</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.838320383128255</v>
+        <v>0.8468222136425254</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367652</v>
+        <v>-4.978632035925698</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.010125577291</v>
+        <v>175.0213679587255</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609927</v>
+        <v>0.8468222135768503</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369177</v>
+        <v>0.8468222136510145</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297368</v>
+        <v>-4.978632034890927</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766108</v>
+        <v>175.0213679580049</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609928</v>
+        <v>0.8468222135768503</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369177</v>
+        <v>0.8468222136510145</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297356</v>
+        <v>-4.978632034890924</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766108</v>
+        <v>175.0213679580049</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9334935060169504</v>
+        <v>0.9366260695576809</v>
       </c>
       <c r="O2">
-        <v>0.7936674232727595</v>
+        <v>0.793667423272952</v>
       </c>
       <c r="P2">
-        <v>0.9580977882541356</v>
+        <v>0.9588753018910026</v>
       </c>
       <c r="Q2">
-        <v>23.95979098161584</v>
+        <v>24.06087215328627</v>
       </c>
       <c r="R2">
-        <v>-89.22492623897499</v>
+        <v>-89.22492623897374</v>
       </c>
       <c r="S2">
-        <v>154.3650519625827</v>
+        <v>154.5715194669469</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.864249469156538</v>
+        <v>4.744874843602974</v>
       </c>
       <c r="D3">
-        <v>3.420873634629109</v>
+        <v>3.530967859882375</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>56.16751480846042</v>
+        <v>54.7890953645052</v>
       </c>
       <c r="G3">
-        <v>39.50084627633619</v>
+        <v>40.77210488806011</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
-        <v>0.838320383102353</v>
+        <v>0.846822213617084</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8383203831022643</v>
+        <v>0.8468222136170559</v>
       </c>
       <c r="Q3">
-        <v>-5.989874420578551</v>
+        <v>-4.978632039030051</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>174.0101255793317</v>
+        <v>175.0213679608873</v>
       </c>
       <c r="T3">
-        <v>1.541818903287516</v>
+        <v>1.270334406324665</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8383203830713342</v>
+        <v>0.8468222135869098</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.838320383128255</v>
+        <v>0.8468222136425254</v>
       </c>
       <c r="Q4">
-        <v>-5.989874417367652</v>
+        <v>-4.978632035925698</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>174.010125577291</v>
+        <v>175.0213679587255</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8383203830609927</v>
+        <v>0.8468222135768503</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8383203831369177</v>
+        <v>0.8468222136510145</v>
       </c>
       <c r="Q5">
-        <v>-5.989874416297368</v>
+        <v>-4.978632034890927</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.0101255766108</v>
+        <v>175.0213679580049</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8383203830609928</v>
+        <v>0.8468222135768503</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8383203831369177</v>
+        <v>0.8468222136510145</v>
       </c>
       <c r="Q6">
-        <v>-5.989874416297356</v>
+        <v>-4.978632034890924</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>174.0101255766108</v>
+        <v>175.0213679580049</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9906071603375056</v>
+        <v>0.9916984888620222</v>
       </c>
       <c r="O2">
-        <v>0.951784480252284</v>
+        <v>0.9517844802523221</v>
       </c>
       <c r="P2">
-        <v>0.975085074261915</v>
+        <v>0.9757158747390298</v>
       </c>
       <c r="Q2">
-        <v>28.16032573231858</v>
+        <v>28.1568698057391</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281261</v>
+        <v>-91.61401138281245</v>
       </c>
       <c r="S2">
-        <v>150.2468850048779</v>
+        <v>150.2993146568116</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.332307398888864</v>
+        <v>1.323668058179336</v>
       </c>
       <c r="D3">
-        <v>1.011025655018906</v>
+        <v>0.9930530282174916</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38416070783632</v>
+        <v>15.28440219415097</v>
       </c>
       <c r="G3">
-        <v>11.67431868165566</v>
+        <v>11.46678866321884</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
-        <v>0.972755256451633</v>
+        <v>0.9780014395013092</v>
       </c>
       <c r="O3">
-        <v>0.7848521014138393</v>
+        <v>0.7848521014138103</v>
       </c>
       <c r="P3">
-        <v>0.8786293331945183</v>
+        <v>0.8815140164725016</v>
       </c>
       <c r="Q3">
-        <v>20.76298901305286</v>
+        <v>20.80201887071698</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786944</v>
+        <v>-100.4045966786943</v>
       </c>
       <c r="S3">
-        <v>150.9154060545281</v>
+        <v>151.2039447108115</v>
       </c>
       <c r="T3">
-        <v>0.8163878929598346</v>
+        <v>0.7406485816381901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9727552564449908</v>
+        <v>0.9780014394942772</v>
       </c>
       <c r="O4">
-        <v>0.7848521014214149</v>
+        <v>0.784852101421386</v>
       </c>
       <c r="P4">
-        <v>0.8786293332052802</v>
+        <v>0.8815140164832636</v>
       </c>
       <c r="Q4">
-        <v>20.76298901387265</v>
+        <v>20.80201887151447</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769022</v>
+        <v>-100.4045966769021</v>
       </c>
       <c r="S4">
-        <v>150.9154060548271</v>
+        <v>151.2039447110731</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9727552564427759</v>
+        <v>0.9780014394919324</v>
       </c>
       <c r="O5">
-        <v>0.78485210142394</v>
+        <v>0.7848521014239113</v>
       </c>
       <c r="P5">
-        <v>0.8786293332088672</v>
+        <v>0.8815140164868505</v>
       </c>
       <c r="Q5">
-        <v>20.76298901414593</v>
+        <v>20.80201887178033</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763047</v>
+        <v>-100.4045966763046</v>
       </c>
       <c r="S5">
-        <v>150.9154060549267</v>
+        <v>151.2039447111603</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9727552564427759</v>
+        <v>0.9780014394919324</v>
       </c>
       <c r="O6">
-        <v>0.7848521014239401</v>
+        <v>0.7848521014239113</v>
       </c>
       <c r="P6">
-        <v>0.8786293332088672</v>
+        <v>0.8815140164868502</v>
       </c>
       <c r="Q6">
-        <v>20.76298901414593</v>
+        <v>20.80201887178033</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763047</v>
+        <v>-100.4045966763046</v>
       </c>
       <c r="S6">
-        <v>150.9154060549267</v>
+        <v>151.2039447111603</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9906071603375056</v>
+        <v>0.9916984888620222</v>
       </c>
       <c r="O2">
-        <v>0.951784480252284</v>
+        <v>0.9517844802523221</v>
       </c>
       <c r="P2">
-        <v>0.975085074261915</v>
+        <v>0.9757158747390298</v>
       </c>
       <c r="Q2">
-        <v>28.16032573231858</v>
+        <v>28.1568698057391</v>
       </c>
       <c r="R2">
-        <v>-91.61401138281261</v>
+        <v>-91.61401138281245</v>
       </c>
       <c r="S2">
-        <v>150.2468850048779</v>
+        <v>150.2993146568116</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.332307398888864</v>
+        <v>1.323668058179336</v>
       </c>
       <c r="D3">
-        <v>1.011025655018906</v>
+        <v>0.9930530282174916</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.38416070783632</v>
+        <v>15.28440219415097</v>
       </c>
       <c r="G3">
-        <v>11.67431868165566</v>
+        <v>11.46678866321884</v>
       </c>
       <c r="H3">
-        <v>10.65491498231264</v>
+        <v>13.15934532557976</v>
       </c>
       <c r="I3">
-        <v>2.173959091208256</v>
+        <v>2.140354279306812</v>
       </c>
       <c r="J3">
-        <v>0.1153518594840182</v>
+        <v>0.1153518594840227</v>
       </c>
       <c r="K3">
-        <v>2.416397540698256</v>
+        <v>2.416397540698261</v>
       </c>
       <c r="L3">
-        <v>0.1153518594713441</v>
+        <v>0.1153518594714106</v>
       </c>
       <c r="M3">
-        <v>2.41639754067588</v>
+        <v>2.416397540675912</v>
       </c>
       <c r="N3">
-        <v>0.972755256451633</v>
+        <v>0.9780014395013092</v>
       </c>
       <c r="O3">
-        <v>0.7848521014138393</v>
+        <v>0.7848521014138103</v>
       </c>
       <c r="P3">
-        <v>0.8786293331945183</v>
+        <v>0.8815140164725016</v>
       </c>
       <c r="Q3">
-        <v>20.76298901305286</v>
+        <v>20.80201887071698</v>
       </c>
       <c r="R3">
-        <v>-100.4045966786944</v>
+        <v>-100.4045966786943</v>
       </c>
       <c r="S3">
-        <v>150.9154060545281</v>
+        <v>151.2039447108115</v>
       </c>
       <c r="T3">
-        <v>0.8163878929598346</v>
+        <v>0.7406485816381901</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9727552564449908</v>
+        <v>0.9780014394942772</v>
       </c>
       <c r="O4">
-        <v>0.7848521014214149</v>
+        <v>0.784852101421386</v>
       </c>
       <c r="P4">
-        <v>0.8786293332052802</v>
+        <v>0.8815140164832636</v>
       </c>
       <c r="Q4">
-        <v>20.76298901387265</v>
+        <v>20.80201887151447</v>
       </c>
       <c r="R4">
-        <v>-100.4045966769022</v>
+        <v>-100.4045966769021</v>
       </c>
       <c r="S4">
-        <v>150.9154060548271</v>
+        <v>151.2039447110731</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9727552564427759</v>
+        <v>0.9780014394919324</v>
       </c>
       <c r="O5">
-        <v>0.78485210142394</v>
+        <v>0.7848521014239113</v>
       </c>
       <c r="P5">
-        <v>0.8786293332088672</v>
+        <v>0.8815140164868505</v>
       </c>
       <c r="Q5">
-        <v>20.76298901414593</v>
+        <v>20.80201887178033</v>
       </c>
       <c r="R5">
-        <v>-100.4045966763047</v>
+        <v>-100.4045966763046</v>
       </c>
       <c r="S5">
-        <v>150.9154060549267</v>
+        <v>151.2039447111603</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9727552564427759</v>
+        <v>0.9780014394919324</v>
       </c>
       <c r="O6">
-        <v>0.7848521014239401</v>
+        <v>0.7848521014239113</v>
       </c>
       <c r="P6">
-        <v>0.8786293332088672</v>
+        <v>0.8815140164868502</v>
       </c>
       <c r="Q6">
-        <v>20.76298901414593</v>
+        <v>20.80201887178033</v>
       </c>
       <c r="R6">
-        <v>-100.4045966763047</v>
+        <v>-100.4045966763046</v>
       </c>
       <c r="S6">
-        <v>150.9154060549267</v>
+        <v>151.2039447111603</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10541,13 +10541,13 @@
         <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.890926093052382</v>
+        <v>0.8909260930523819</v>
       </c>
       <c r="P2">
         <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>25.18850204033979</v>
+        <v>25.18850204033978</v>
       </c>
       <c r="R2">
         <v>-89.28600430314906</v>
@@ -10564,49 +10564,49 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.759944874248876</v>
+        <v>4.759944874248877</v>
       </c>
       <c r="D3">
-        <v>4.759944874248876</v>
+        <v>4.759944874248877</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950737</v>
       </c>
       <c r="G3">
-        <v>54.96310908950736</v>
+        <v>54.96310908950737</v>
       </c>
       <c r="H3">
-        <v>5.549477056495876</v>
+        <v>8.054064625203937</v>
       </c>
       <c r="I3">
-        <v>2.197592797843661</v>
+        <v>2.174943245955635</v>
       </c>
       <c r="J3">
-        <v>0.1077319054063102</v>
+        <v>0.1077319054063109</v>
       </c>
       <c r="K3">
         <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.1077319054133287</v>
+        <v>0.1077319054133941</v>
       </c>
       <c r="M3">
-        <v>2.308438694642942</v>
+        <v>2.308438694642979</v>
       </c>
       <c r="N3">
-        <v>0.9526279648020819</v>
+        <v>0.9526279648020823</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9526279648025193</v>
+        <v>0.9526279648025194</v>
       </c>
       <c r="Q3">
-        <v>-4.057898871037865E-12</v>
+        <v>-4.083496739406982E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9526279648292906</v>
+        <v>0.9526279648292908</v>
       </c>
       <c r="Q4">
-        <v>1.415050686472405E-09</v>
+        <v>1.415014391500165E-09</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9526279647663871</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648382142</v>
+        <v>0.9526279648382145</v>
       </c>
       <c r="Q5">
-        <v>1.888097484370796E-09</v>
+        <v>1.888040542729832E-09</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999981033</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10780,16 +10780,16 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9526279648382142</v>
+        <v>0.9526279648382147</v>
       </c>
       <c r="Q6">
-        <v>1.888099387923842E-09</v>
+        <v>1.888046398187634E-09</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>179.9999999981033</v>
+        <v>179.9999999981032</v>
       </c>
     </row>
   </sheetData>
